--- a/NGS-QciDb/Scrub/counts.xlsx
+++ b/NGS-QciDb/Scrub/counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\cmol\NGS-QciDb\Scrub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195FD3EB-CA37-4B35-A075-2EC262BE1773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703DEC59-FCD7-4BED-A779-FFEDE1CC20D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{488953EF-C42A-4135-9D5E-3485A7E7C408}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>accession</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>interpretation</t>
   </si>
 </sst>
 </file>
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E66C32-FC22-44CB-B8A9-7D4AD43618BB}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +642,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
